--- a/reports/corpus_dwi-class-stats.xlsx
+++ b/reports/corpus_dwi-class-stats.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,24 +447,20 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>rb</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>VBGT</t>
+          <t>SYM</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -473,54 +469,54 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SYM</t>
+          <t>PRN</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>RBS</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NNC</t>
+          <t>CDC</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DM</t>
+          <t>CDO</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8">
@@ -529,176 +525,180 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>DC</t>
+          <t>FW</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CON</t>
+          <t>UH</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B10" t="inlineStr"/>
+        <v>18</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>PRL</t>
+        </is>
+      </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>PRN</t>
+          <t>CDI</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>6</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>WP</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>10</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>CDC</t>
+          <t>CDP</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>23</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CDO</t>
+          <t>MD</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>39</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>FW</t>
+          <t>NNG</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>74</v>
+        <v>278</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>UH</t>
+          <t>,</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>91</v>
+        <v>301</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>PRL</t>
+          <t>NEG</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>93</v>
+        <v>327</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>CDI</t>
+          <t>RP</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>99</v>
+        <v>387</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>WP</t>
+          <t>CC</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>146</v>
+        <v>439</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>CDP</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>171</v>
+        <v>498</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>DT</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>191</v>
+        <v>708</v>
       </c>
     </row>
     <row r="22">
@@ -707,24 +707,24 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>NNG</t>
+          <t>PRP</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>278</v>
+        <v>742</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>,</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>301</v>
+        <v>779</v>
       </c>
     </row>
     <row r="24">
@@ -733,180 +733,89 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>NEG</t>
+          <t>NNP</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>327</v>
+        <v>874</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>RP</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>387</v>
+        <v>992</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>CC</t>
+          <t>JJ</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>438</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>VBI</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>497</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>DT</t>
+          <t>VBT</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>708</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>PRP</t>
+          <t>.</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>742</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>NNP</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>RB</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>JJ</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>VBI</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>VBT</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>1499</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>NN</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>2688</v>
+        <v>2689</v>
       </c>
     </row>
   </sheetData>
